--- a/crono/Cronograma demoday.xlsx
+++ b/crono/Cronograma demoday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Note Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Note Dell\Desktop\demoday\crono\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -463,14 +463,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -481,219 +481,7 @@
     <cellStyle name="Título" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="4" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -800,6 +588,38 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
@@ -854,11 +674,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project To Do List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project To Do List" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -993,14 +813,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblListaTarefas" displayName="tblListaTarefas" ref="B9:G35">
   <autoFilter ref="B9:G35"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Atividade" dataDxfId="13" totalsRowDxfId="20" dataCellStyle="Atividade"/>
-    <tableColumn id="7" name="Data de conclusão" totalsRowDxfId="19"/>
-    <tableColumn id="4" name="Orçamento" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="1" name="% concluída" totalsRowDxfId="16"/>
-    <tableColumn id="6" name="Progresso" totalsRowDxfId="15">
+    <tableColumn id="2" name="Atividade" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Atividade"/>
+    <tableColumn id="7" name="Data de conclusão" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Orçamento" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="% concluída" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Progresso" totalsRowDxfId="1">
       <calculatedColumnFormula>tblListaTarefas[[#This Row],[% concluída]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Observações" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Observações" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,7 +1065,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1310,10 +1130,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1343,7 +1163,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="15">
@@ -1360,7 +1180,7 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="15">
@@ -1377,7 +1197,7 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="15">
@@ -1394,7 +1214,7 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="15">
@@ -1411,7 +1231,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="15">
@@ -1428,7 +1248,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="15">
@@ -1445,7 +1265,7 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="15">
@@ -1464,7 +1284,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="15">
@@ -1472,17 +1292,17 @@
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="16">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F17" s="16">
         <f>tblListaTarefas[[#This Row],[% concluída]]</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G17" s="13"/>
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="15">
@@ -1499,7 +1319,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="15">
@@ -1514,7 +1334,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="15">
@@ -1529,7 +1349,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="15">
@@ -1544,7 +1364,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="15">
@@ -1559,7 +1379,7 @@
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="15">
@@ -1574,7 +1394,7 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="15">
@@ -1589,7 +1409,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="15">
@@ -1604,7 +1424,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="15">
@@ -1619,7 +1439,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="15">
@@ -1634,7 +1454,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="15">
@@ -1649,7 +1469,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="15">
@@ -1664,7 +1484,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="15">
@@ -1679,7 +1499,7 @@
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="15">
@@ -1694,7 +1514,7 @@
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="15">
@@ -1709,7 +1529,7 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="15">
@@ -1724,7 +1544,7 @@
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="15"/>
@@ -1737,7 +1557,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="15"/>
@@ -1757,7 +1577,7 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:G35">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>($C10&gt;=valInícioD)*($C10&lt;=valTérminoD)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1868,12 +1688,12 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:6" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
